--- a/tables/vip_bone_mandible_lcms_plsr_var_meta.xlsx
+++ b/tables/vip_bone_mandible_lcms_plsr_var_meta.xlsx
@@ -6997,7 +6997,7 @@
       </c>
       <c r="Z3"/>
       <c r="AA3" t="n">
-        <v>85.5155518222565</v>
+        <v>88.4385296836709</v>
       </c>
     </row>
     <row r="4">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="Z4"/>
       <c r="AA4" t="n">
-        <v>84.6876238046363</v>
+        <v>88.0466003903164</v>
       </c>
     </row>
     <row r="5">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="Z5"/>
       <c r="AA5" t="n">
-        <v>81.3385140741888</v>
+        <v>83.9462908878646</v>
       </c>
     </row>
     <row r="6">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="Z6"/>
       <c r="AA6" t="n">
-        <v>79.2403542386856</v>
+        <v>80.1896968271465</v>
       </c>
     </row>
     <row r="7">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="Z7"/>
       <c r="AA7" t="n">
-        <v>78.9294166291616</v>
+        <v>79.6888542190907</v>
       </c>
     </row>
     <row r="8">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="Z8"/>
       <c r="AA8" t="n">
-        <v>76.1343292123572</v>
+        <v>78.2217481113913</v>
       </c>
     </row>
     <row r="9">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="Z9"/>
       <c r="AA9" t="n">
-        <v>76.1091704048567</v>
+        <v>77.3346252496232</v>
       </c>
     </row>
     <row r="10">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z10"/>
       <c r="AA10" t="n">
-        <v>72.7257340614317</v>
+        <v>75.2103396177645</v>
       </c>
     </row>
     <row r="11">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="Z11"/>
       <c r="AA11" t="n">
-        <v>72.4046302842105</v>
+        <v>74.092433974203</v>
       </c>
     </row>
     <row r="12">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="Z12"/>
       <c r="AA12" t="n">
-        <v>71.140971120378</v>
+        <v>74.0315807366539</v>
       </c>
     </row>
     <row r="13">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="Z13"/>
       <c r="AA13" t="n">
-        <v>70.9112237009674</v>
+        <v>73.7666143362354</v>
       </c>
     </row>
     <row r="14">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="Z14"/>
       <c r="AA14" t="n">
-        <v>70.9015293807195</v>
+        <v>73.6535266647528</v>
       </c>
     </row>
     <row r="15">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="Z15"/>
       <c r="AA15" t="n">
-        <v>70.24678340817</v>
+        <v>71.8398802267098</v>
       </c>
     </row>
     <row r="16">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="Z16"/>
       <c r="AA16" t="n">
-        <v>69.982494194192</v>
+        <v>70.7060494305153</v>
       </c>
     </row>
     <row r="17">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="Z17"/>
       <c r="AA17" t="n">
-        <v>68.7408889459576</v>
+        <v>70.5606475937451</v>
       </c>
     </row>
     <row r="18">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="Z18"/>
       <c r="AA18" t="n">
-        <v>67.4887282508558</v>
+        <v>69.619927230062</v>
       </c>
     </row>
     <row r="19">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="Z19"/>
       <c r="AA19" t="n">
-        <v>65.5237910910907</v>
+        <v>69.6062427194357</v>
       </c>
     </row>
     <row r="20">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="Z20"/>
       <c r="AA20" t="n">
-        <v>64.7299412691607</v>
+        <v>68.1628285653876</v>
       </c>
     </row>
     <row r="21">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="Z21"/>
       <c r="AA21" t="n">
-        <v>63.9482592166698</v>
+        <v>67.9172916269244</v>
       </c>
     </row>
     <row r="22">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="Z22"/>
       <c r="AA22" t="n">
-        <v>63.8925018283157</v>
+        <v>67.1690215306535</v>
       </c>
     </row>
     <row r="23">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="Z23"/>
       <c r="AA23" t="n">
-        <v>63.4443599313449</v>
+        <v>67.0398558926798</v>
       </c>
     </row>
     <row r="24">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24" t="n">
-        <v>61.9563427350439</v>
+        <v>65.9293838368115</v>
       </c>
     </row>
     <row r="25">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="Z25"/>
       <c r="AA25" t="n">
-        <v>61.774254902349</v>
+        <v>64.9509350617756</v>
       </c>
     </row>
     <row r="26">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="Z26"/>
       <c r="AA26" t="n">
-        <v>61.7258580788651</v>
+        <v>64.624573148319</v>
       </c>
     </row>
     <row r="27">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" t="n">
-        <v>61.1195440297373</v>
+        <v>62.7520076951137</v>
       </c>
     </row>
     <row r="28">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="Z28"/>
       <c r="AA28" t="n">
-        <v>56.8910090885775</v>
+        <v>60.2340479609231</v>
       </c>
     </row>
     <row r="29">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="Z29"/>
       <c r="AA29" t="n">
-        <v>56.5799639980336</v>
+        <v>60.0437327833914</v>
       </c>
     </row>
     <row r="30">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="Z30"/>
       <c r="AA30" t="n">
-        <v>55.3100772430391</v>
+        <v>59.6484039244944</v>
       </c>
     </row>
     <row r="31">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="Z31"/>
       <c r="AA31" t="n">
-        <v>54.8575237302436</v>
+        <v>59.5982266826765</v>
       </c>
     </row>
     <row r="32">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="Z32"/>
       <c r="AA32" t="n">
-        <v>54.7623499138291</v>
+        <v>58.5197024966971</v>
       </c>
     </row>
     <row r="33">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="Z33"/>
       <c r="AA33" t="n">
-        <v>54.6108109526779</v>
+        <v>58.3998011751023</v>
       </c>
     </row>
     <row r="34">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="Z34"/>
       <c r="AA34" t="n">
-        <v>54.2038954121018</v>
+        <v>57.7344384620537</v>
       </c>
     </row>
     <row r="35">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="Z35"/>
       <c r="AA35" t="n">
-        <v>53.9466619229759</v>
+        <v>57.4745312425513</v>
       </c>
     </row>
     <row r="36">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="Z36"/>
       <c r="AA36" t="n">
-        <v>53.9464074113346</v>
+        <v>55.5895915811579</v>
       </c>
     </row>
     <row r="37">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z37"/>
       <c r="AA37" t="n">
-        <v>53.5181336623199</v>
+        <v>55.530064560511</v>
       </c>
     </row>
     <row r="38">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="Z38"/>
       <c r="AA38" t="n">
-        <v>51.8765948172934</v>
+        <v>55.3342390971716</v>
       </c>
     </row>
     <row r="39">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="Z39"/>
       <c r="AA39" t="n">
-        <v>51.0991505072654</v>
+        <v>55.3157220169925</v>
       </c>
     </row>
     <row r="40">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="Z40"/>
       <c r="AA40" t="n">
-        <v>50.8378739966656</v>
+        <v>55.0847386172391</v>
       </c>
     </row>
     <row r="41">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="Z41"/>
       <c r="AA41" t="n">
-        <v>50.7515331629966</v>
+        <v>54.7540250802248</v>
       </c>
     </row>
     <row r="42">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="Z42"/>
       <c r="AA42" t="n">
-        <v>50.6055636215072</v>
+        <v>54.4231518353712</v>
       </c>
     </row>
     <row r="43">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="Z43"/>
       <c r="AA43" t="n">
-        <v>50.4608694512882</v>
+        <v>53.6311326333028</v>
       </c>
     </row>
     <row r="44">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="Z44"/>
       <c r="AA44" t="n">
-        <v>50.2211987479862</v>
+        <v>53.2696908309914</v>
       </c>
     </row>
     <row r="45">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="Z45"/>
       <c r="AA45" t="n">
-        <v>50.0092414334854</v>
+        <v>52.8669812663612</v>
       </c>
     </row>
     <row r="46">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="Z46"/>
       <c r="AA46" t="n">
-        <v>49.6905631723748</v>
+        <v>52.4160532862879</v>
       </c>
     </row>
     <row r="47">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="Z47"/>
       <c r="AA47" t="n">
-        <v>49.4623093968182</v>
+        <v>52.0047937468767</v>
       </c>
     </row>
     <row r="48">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="Z48"/>
       <c r="AA48" t="n">
-        <v>48.7946490303082</v>
+        <v>51.7151294897769</v>
       </c>
     </row>
     <row r="49">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="Z49"/>
       <c r="AA49" t="n">
-        <v>48.0493885201303</v>
+        <v>51.5898285528784</v>
       </c>
     </row>
     <row r="50">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="Z50"/>
       <c r="AA50" t="n">
-        <v>47.8759754585527</v>
+        <v>51.393420678846</v>
       </c>
     </row>
     <row r="51">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z51"/>
       <c r="AA51" t="n">
-        <v>47.5966284783996</v>
+        <v>51.1598992719844</v>
       </c>
     </row>
     <row r="52">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="Z52"/>
       <c r="AA52" t="n">
-        <v>47.3601401063865</v>
+        <v>50.7844695031048</v>
       </c>
     </row>
     <row r="53">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="Z53"/>
       <c r="AA53" t="n">
-        <v>47.3526947152214</v>
+        <v>50.7421613377336</v>
       </c>
     </row>
     <row r="54">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="Z54"/>
       <c r="AA54" t="n">
-        <v>47.134647726673</v>
+        <v>50.2588847775707</v>
       </c>
     </row>
     <row r="55">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="Z55"/>
       <c r="AA55" t="n">
-        <v>46.8221328474349</v>
+        <v>50.0204556775154</v>
       </c>
     </row>
     <row r="56">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="Z56"/>
       <c r="AA56" t="n">
-        <v>46.8015248593225</v>
+        <v>49.9442097951959</v>
       </c>
     </row>
     <row r="57">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="Z57"/>
       <c r="AA57" t="n">
-        <v>46.1870946998491</v>
+        <v>49.8250078632777</v>
       </c>
     </row>
     <row r="58">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="Z58"/>
       <c r="AA58" t="n">
-        <v>46.153294260246</v>
+        <v>49.3524829581185</v>
       </c>
     </row>
     <row r="59">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="Z59"/>
       <c r="AA59" t="n">
-        <v>45.8206336165477</v>
+        <v>49.3269075786778</v>
       </c>
     </row>
     <row r="60">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="Z60"/>
       <c r="AA60" t="n">
-        <v>45.7856041543631</v>
+        <v>49.2917661769628</v>
       </c>
     </row>
     <row r="61">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="Z61"/>
       <c r="AA61" t="n">
-        <v>45.7827246736699</v>
+        <v>49.284438006641</v>
       </c>
     </row>
     <row r="62">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="Z62"/>
       <c r="AA62" t="n">
-        <v>45.7033609632542</v>
+        <v>48.8969040337603</v>
       </c>
     </row>
     <row r="63">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="Z63"/>
       <c r="AA63" t="n">
-        <v>45.6897388451667</v>
+        <v>48.7713262694299</v>
       </c>
     </row>
     <row r="64">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="Z64"/>
       <c r="AA64" t="n">
-        <v>45.5993768993273</v>
+        <v>48.4337379964177</v>
       </c>
     </row>
     <row r="65">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="Z65"/>
       <c r="AA65" t="n">
-        <v>45.4324862617314</v>
+        <v>47.1837683521446</v>
       </c>
     </row>
     <row r="66">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="Z66"/>
       <c r="AA66" t="n">
-        <v>45.3560369513493</v>
+        <v>47.1787946089122</v>
       </c>
     </row>
     <row r="67">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="Z67"/>
       <c r="AA67" t="n">
-        <v>44.4974593532043</v>
+        <v>46.8666862199993</v>
       </c>
     </row>
     <row r="68">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="Z68"/>
       <c r="AA68" t="n">
-        <v>43.7500835834289</v>
+        <v>46.7616326513115</v>
       </c>
     </row>
     <row r="69">
@@ -12085,7 +12085,7 @@
       </c>
       <c r="Z69"/>
       <c r="AA69" t="n">
-        <v>43.6064440412919</v>
+        <v>46.7397834432135</v>
       </c>
     </row>
     <row r="70">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="Z70"/>
       <c r="AA70" t="n">
-        <v>43.1082019555993</v>
+        <v>46.0904286952951</v>
       </c>
     </row>
     <row r="71">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="Z71"/>
       <c r="AA71" t="n">
-        <v>42.6454397456662</v>
+        <v>46.0722395751988</v>
       </c>
     </row>
     <row r="72">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="Z72"/>
       <c r="AA72" t="n">
-        <v>42.5899343154229</v>
+        <v>45.9175210735469</v>
       </c>
     </row>
     <row r="73">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="Z73"/>
       <c r="AA73" t="n">
-        <v>42.1597796169086</v>
+        <v>45.8306602801984</v>
       </c>
     </row>
     <row r="74">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="Z74"/>
       <c r="AA74" t="n">
-        <v>42.1525761362369</v>
+        <v>45.6065844868289</v>
       </c>
     </row>
     <row r="75">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="Z75"/>
       <c r="AA75" t="n">
-        <v>41.8298885459925</v>
+        <v>45.4278559718044</v>
       </c>
     </row>
     <row r="76">
@@ -12624,7 +12624,7 @@
       </c>
       <c r="Z76"/>
       <c r="AA76" t="n">
-        <v>41.2123968868798</v>
+        <v>45.418890102608</v>
       </c>
     </row>
     <row r="77">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="Z77"/>
       <c r="AA77" t="n">
-        <v>40.8233123727532</v>
+        <v>45.3361014600855</v>
       </c>
     </row>
     <row r="78">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="Z78"/>
       <c r="AA78" t="n">
-        <v>40.4412968542899</v>
+        <v>45.1574601721573</v>
       </c>
     </row>
     <row r="79">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z79"/>
       <c r="AA79" t="n">
-        <v>40.3008294725634</v>
+        <v>44.8377430507092</v>
       </c>
     </row>
     <row r="80">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="Z80"/>
       <c r="AA80" t="n">
-        <v>39.4722306004019</v>
+        <v>44.7435872779545</v>
       </c>
     </row>
     <row r="81">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="Z81"/>
       <c r="AA81" t="n">
-        <v>39.2853826465708</v>
+        <v>44.7323740951881</v>
       </c>
     </row>
     <row r="82">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="Z82"/>
       <c r="AA82" t="n">
-        <v>39.1354529242218</v>
+        <v>44.3380567868696</v>
       </c>
     </row>
     <row r="83">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="Z83"/>
       <c r="AA83" t="n">
-        <v>38.8275455443378</v>
+        <v>44.0284512791267</v>
       </c>
     </row>
     <row r="84">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="Z84"/>
       <c r="AA84" t="n">
-        <v>38.7946429940852</v>
+        <v>43.8673214351457</v>
       </c>
     </row>
     <row r="85">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="Z85"/>
       <c r="AA85" t="n">
-        <v>38.5347121937871</v>
+        <v>43.5970918917369</v>
       </c>
     </row>
     <row r="86">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="Z86"/>
       <c r="AA86" t="n">
-        <v>38.5254153720396</v>
+        <v>43.4121413282146</v>
       </c>
     </row>
     <row r="87">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="Z87"/>
       <c r="AA87" t="n">
-        <v>38.2928435041866</v>
+        <v>42.3707795989498</v>
       </c>
     </row>
     <row r="88">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="Z88"/>
       <c r="AA88" t="n">
-        <v>37.5246691400073</v>
+        <v>42.10661801247</v>
       </c>
     </row>
     <row r="89">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="Z89"/>
       <c r="AA89" t="n">
-        <v>37.3187051997755</v>
+        <v>41.6047979795829</v>
       </c>
     </row>
     <row r="90">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="Z90"/>
       <c r="AA90" t="n">
-        <v>37.1007362329664</v>
+        <v>41.2497480009272</v>
       </c>
     </row>
     <row r="91">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="Z91"/>
       <c r="AA91" t="n">
-        <v>36.2783545014338</v>
+        <v>40.6170698821225</v>
       </c>
     </row>
     <row r="92">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="Z92"/>
       <c r="AA92" t="n">
-        <v>35.935476447477</v>
+        <v>40.5964053131698</v>
       </c>
     </row>
     <row r="93">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="Z93"/>
       <c r="AA93" t="n">
-        <v>35.5895517895204</v>
+        <v>39.9784506966575</v>
       </c>
     </row>
     <row r="94">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="Z94"/>
       <c r="AA94" t="n">
-        <v>35.1185076094175</v>
+        <v>39.9082986490358</v>
       </c>
     </row>
     <row r="95">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="Z95"/>
       <c r="AA95" t="n">
-        <v>34.8341664798721</v>
+        <v>36.8419846603996</v>
       </c>
     </row>
     <row r="96">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="Z96"/>
       <c r="AA96" t="n">
-        <v>32.9409130551954</v>
+        <v>36.6309164501159</v>
       </c>
     </row>
     <row r="97">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="Z97"/>
       <c r="AA97" t="n">
-        <v>32.7860077845407</v>
+        <v>36.5345845184558</v>
       </c>
     </row>
     <row r="98">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="Z98"/>
       <c r="AA98" t="n">
-        <v>31.739585238567</v>
+        <v>36.1863645896751</v>
       </c>
     </row>
     <row r="99">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="Z99"/>
       <c r="AA99" t="n">
-        <v>31.3843675336431</v>
+        <v>35.9283164156175</v>
       </c>
     </row>
     <row r="100">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="Z100"/>
       <c r="AA100" t="n">
-        <v>31.3481782281031</v>
+        <v>35.4732293017437</v>
       </c>
     </row>
     <row r="101">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="Z101"/>
       <c r="AA101" t="n">
-        <v>31.2975244469008</v>
+        <v>35.1913743112987</v>
       </c>
     </row>
     <row r="102">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="Z102"/>
       <c r="AA102" t="n">
-        <v>30.242006986063</v>
+        <v>35.1657773609576</v>
       </c>
     </row>
     <row r="103">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="Z103"/>
       <c r="AA103" t="n">
-        <v>30.1684362268086</v>
+        <v>34.8722464864479</v>
       </c>
     </row>
     <row r="104">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="Z104"/>
       <c r="AA104" t="n">
-        <v>29.96100144238</v>
+        <v>34.6776681127104</v>
       </c>
     </row>
     <row r="105">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="Z105"/>
       <c r="AA105" t="n">
-        <v>29.7697735125787</v>
+        <v>34.0878703824549</v>
       </c>
     </row>
     <row r="106">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="Z106"/>
       <c r="AA106" t="n">
-        <v>29.4484933142622</v>
+        <v>33.9608039638572</v>
       </c>
     </row>
     <row r="107">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Z107"/>
       <c r="AA107" t="n">
-        <v>29.2806520153467</v>
+        <v>33.9518845971067</v>
       </c>
     </row>
     <row r="108">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="Z108"/>
       <c r="AA108" t="n">
-        <v>28.318188773864</v>
+        <v>33.3043120269909</v>
       </c>
     </row>
     <row r="109">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="Z109"/>
       <c r="AA109" t="n">
-        <v>27.9502592235161</v>
+        <v>33.2666116710722</v>
       </c>
     </row>
     <row r="110">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="Z110"/>
       <c r="AA110" t="n">
-        <v>27.5076784406147</v>
+        <v>32.8867570443599</v>
       </c>
     </row>
     <row r="111">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="Z111"/>
       <c r="AA111" t="n">
-        <v>26.6639626771623</v>
+        <v>32.8417633711309</v>
       </c>
     </row>
     <row r="112">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="Z112"/>
       <c r="AA112" t="n">
-        <v>26.5079281711434</v>
+        <v>32.7021721530146</v>
       </c>
     </row>
     <row r="113">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="Z113"/>
       <c r="AA113" t="n">
-        <v>26.3896439767503</v>
+        <v>32.5498949640233</v>
       </c>
     </row>
     <row r="114">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="Z114"/>
       <c r="AA114" t="n">
-        <v>26.1174177221635</v>
+        <v>32.4276017439292</v>
       </c>
     </row>
     <row r="115">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="Z115"/>
       <c r="AA115" t="n">
-        <v>25.5128308987729</v>
+        <v>31.7573693554412</v>
       </c>
     </row>
     <row r="116">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="Z116"/>
       <c r="AA116" t="n">
-        <v>25.1457536103458</v>
+        <v>31.3694660051956</v>
       </c>
     </row>
     <row r="117">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="Z117"/>
       <c r="AA117" t="n">
-        <v>24.7925169010494</v>
+        <v>30.7722079482016</v>
       </c>
     </row>
     <row r="118">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="Z118"/>
       <c r="AA118" t="n">
-        <v>24.5554271902328</v>
+        <v>29.7773376014198</v>
       </c>
     </row>
     <row r="119">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="Z119"/>
       <c r="AA119" t="n">
-        <v>24.4545228027843</v>
+        <v>28.9651387472428</v>
       </c>
     </row>
     <row r="120">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="Z120"/>
       <c r="AA120" t="n">
-        <v>24.288708622603</v>
+        <v>28.9094247208794</v>
       </c>
     </row>
     <row r="121">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="Z121"/>
       <c r="AA121" t="n">
-        <v>23.7166602205144</v>
+        <v>28.8963836999246</v>
       </c>
     </row>
     <row r="122">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="Z122"/>
       <c r="AA122" t="n">
-        <v>23.6705403362151</v>
+        <v>28.4264090985228</v>
       </c>
     </row>
     <row r="123">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="Z123"/>
       <c r="AA123" t="n">
-        <v>23.420914765625</v>
+        <v>28.3392453064526</v>
       </c>
     </row>
     <row r="124">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="Z124"/>
       <c r="AA124" t="n">
-        <v>22.2423592967543</v>
+        <v>28.0534454295831</v>
       </c>
     </row>
     <row r="125">
@@ -16407,7 +16407,7 @@
       </c>
       <c r="Z125"/>
       <c r="AA125" t="n">
-        <v>21.9984187547581</v>
+        <v>27.9884683847151</v>
       </c>
     </row>
     <row r="126">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="Z126"/>
       <c r="AA126" t="n">
-        <v>21.4661018032904</v>
+        <v>27.1379662821599</v>
       </c>
     </row>
     <row r="127">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="Z127"/>
       <c r="AA127" t="n">
-        <v>21.0353770868969</v>
+        <v>25.4683926177407</v>
       </c>
     </row>
     <row r="128">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="Z128"/>
       <c r="AA128" t="n">
-        <v>20.1545514367305</v>
+        <v>24.1215382450902</v>
       </c>
     </row>
     <row r="129">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="Z129"/>
       <c r="AA129" t="n">
-        <v>20.1231311676672</v>
+        <v>23.5187425058593</v>
       </c>
     </row>
     <row r="130">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="Z130"/>
       <c r="AA130" t="n">
-        <v>19.3684977827706</v>
+        <v>23.3942373376413</v>
       </c>
     </row>
     <row r="131">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="Z131"/>
       <c r="AA131" t="n">
-        <v>18.9139136231644</v>
+        <v>23.2404661802817</v>
       </c>
     </row>
     <row r="132">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="Z132"/>
       <c r="AA132" t="n">
-        <v>18.4790377408276</v>
+        <v>22.7559008964192</v>
       </c>
     </row>
     <row r="133">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="Z133"/>
       <c r="AA133" t="n">
-        <v>16.8876728305329</v>
+        <v>22.4920420354296</v>
       </c>
     </row>
     <row r="134">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="Z134"/>
       <c r="AA134" t="n">
-        <v>16.5072553490477</v>
+        <v>21.0935374272995</v>
       </c>
     </row>
     <row r="135">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="Z135"/>
       <c r="AA135" t="n">
-        <v>15.3910468771285</v>
+        <v>21.0819754694945</v>
       </c>
     </row>
     <row r="136">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="Z136"/>
       <c r="AA136" t="n">
-        <v>14.3137405471778</v>
+        <v>20.9875786981908</v>
       </c>
     </row>
     <row r="137">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="Z137"/>
       <c r="AA137" t="n">
-        <v>14.1569666535934</v>
+        <v>20.5879531028673</v>
       </c>
     </row>
     <row r="138">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="Z138"/>
       <c r="AA138" t="n">
-        <v>13.8360632941375</v>
+        <v>20.0093339714674</v>
       </c>
     </row>
     <row r="139">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="Z139"/>
       <c r="AA139" t="n">
-        <v>13.698276100729</v>
+        <v>19.6097728811018</v>
       </c>
     </row>
     <row r="140">
@@ -17564,7 +17564,7 @@
       </c>
       <c r="Z140"/>
       <c r="AA140" t="n">
-        <v>13.331487635047</v>
+        <v>18.781402659232</v>
       </c>
     </row>
     <row r="141">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="Z141"/>
       <c r="AA141" t="n">
-        <v>12.936464992567</v>
+        <v>18.2614046673798</v>
       </c>
     </row>
     <row r="142">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="Z142"/>
       <c r="AA142" t="n">
-        <v>12.9123291826546</v>
+        <v>17.8266735114207</v>
       </c>
     </row>
     <row r="143">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="Z143"/>
       <c r="AA143" t="n">
-        <v>11.3874281569351</v>
+        <v>16.2762280730347</v>
       </c>
     </row>
     <row r="144">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="Z144"/>
       <c r="AA144" t="n">
-        <v>7.86587696035347</v>
+        <v>13.0719153323664</v>
       </c>
     </row>
     <row r="145">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="Z145"/>
       <c r="AA145" t="n">
-        <v>7.6108083397857</v>
+        <v>11.8330941733946</v>
       </c>
     </row>
     <row r="146">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="Z146"/>
       <c r="AA146" t="n">
-        <v>4.66947096001043</v>
+        <v>10.8886246857785</v>
       </c>
     </row>
     <row r="147">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="Z147"/>
       <c r="AA147" t="n">
-        <v>0.888962245020958</v>
+        <v>7.05343174765259</v>
       </c>
     </row>
     <row r="148">

--- a/tables/vip_bone_mandible_lcms_plsr_var_meta.xlsx
+++ b/tables/vip_bone_mandible_lcms_plsr_var_meta.xlsx
@@ -6997,7 +6997,7 @@
       </c>
       <c r="Z3"/>
       <c r="AA3" t="n">
-        <v>88.4385296836709</v>
+        <v>85.5155518222565</v>
       </c>
     </row>
     <row r="4">
@@ -7074,7 +7074,7 @@
       </c>
       <c r="Z4"/>
       <c r="AA4" t="n">
-        <v>88.0466003903164</v>
+        <v>84.6876238046363</v>
       </c>
     </row>
     <row r="5">
@@ -7151,7 +7151,7 @@
       </c>
       <c r="Z5"/>
       <c r="AA5" t="n">
-        <v>83.9462908878646</v>
+        <v>81.3385140741888</v>
       </c>
     </row>
     <row r="6">
@@ -7228,7 +7228,7 @@
       </c>
       <c r="Z6"/>
       <c r="AA6" t="n">
-        <v>80.1896968271465</v>
+        <v>79.2403542386856</v>
       </c>
     </row>
     <row r="7">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="Z7"/>
       <c r="AA7" t="n">
-        <v>79.6888542190907</v>
+        <v>78.9294166291616</v>
       </c>
     </row>
     <row r="8">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="Z8"/>
       <c r="AA8" t="n">
-        <v>78.2217481113913</v>
+        <v>76.1343292123572</v>
       </c>
     </row>
     <row r="9">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="Z9"/>
       <c r="AA9" t="n">
-        <v>77.3346252496232</v>
+        <v>76.1091704048567</v>
       </c>
     </row>
     <row r="10">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="Z10"/>
       <c r="AA10" t="n">
-        <v>75.2103396177645</v>
+        <v>72.7257340614317</v>
       </c>
     </row>
     <row r="11">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="Z11"/>
       <c r="AA11" t="n">
-        <v>74.092433974203</v>
+        <v>72.4046302842105</v>
       </c>
     </row>
     <row r="12">
@@ -7692,7 +7692,7 @@
       </c>
       <c r="Z12"/>
       <c r="AA12" t="n">
-        <v>74.0315807366539</v>
+        <v>71.140971120378</v>
       </c>
     </row>
     <row r="13">
@@ -7769,7 +7769,7 @@
       </c>
       <c r="Z13"/>
       <c r="AA13" t="n">
-        <v>73.7666143362354</v>
+        <v>70.9112237009674</v>
       </c>
     </row>
     <row r="14">
@@ -7846,7 +7846,7 @@
       </c>
       <c r="Z14"/>
       <c r="AA14" t="n">
-        <v>73.6535266647528</v>
+        <v>70.9015293807195</v>
       </c>
     </row>
     <row r="15">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="Z15"/>
       <c r="AA15" t="n">
-        <v>71.8398802267098</v>
+        <v>70.24678340817</v>
       </c>
     </row>
     <row r="16">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="Z16"/>
       <c r="AA16" t="n">
-        <v>70.7060494305153</v>
+        <v>69.982494194192</v>
       </c>
     </row>
     <row r="17">
@@ -8077,7 +8077,7 @@
       </c>
       <c r="Z17"/>
       <c r="AA17" t="n">
-        <v>70.5606475937451</v>
+        <v>68.7408889459576</v>
       </c>
     </row>
     <row r="18">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="Z18"/>
       <c r="AA18" t="n">
-        <v>69.619927230062</v>
+        <v>67.4887282508558</v>
       </c>
     </row>
     <row r="19">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="Z19"/>
       <c r="AA19" t="n">
-        <v>69.6062427194357</v>
+        <v>65.5237910910907</v>
       </c>
     </row>
     <row r="20">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="Z20"/>
       <c r="AA20" t="n">
-        <v>68.1628285653876</v>
+        <v>64.7299412691607</v>
       </c>
     </row>
     <row r="21">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="Z21"/>
       <c r="AA21" t="n">
-        <v>67.9172916269244</v>
+        <v>63.9482592166698</v>
       </c>
     </row>
     <row r="22">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="Z22"/>
       <c r="AA22" t="n">
-        <v>67.1690215306535</v>
+        <v>63.8925018283157</v>
       </c>
     </row>
     <row r="23">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="Z23"/>
       <c r="AA23" t="n">
-        <v>67.0398558926798</v>
+        <v>63.4443599313449</v>
       </c>
     </row>
     <row r="24">
@@ -8616,7 +8616,7 @@
       </c>
       <c r="Z24"/>
       <c r="AA24" t="n">
-        <v>65.9293838368115</v>
+        <v>61.9563427350439</v>
       </c>
     </row>
     <row r="25">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="Z25"/>
       <c r="AA25" t="n">
-        <v>64.9509350617756</v>
+        <v>61.774254902349</v>
       </c>
     </row>
     <row r="26">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="Z26"/>
       <c r="AA26" t="n">
-        <v>64.624573148319</v>
+        <v>61.7258580788651</v>
       </c>
     </row>
     <row r="27">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="Z27"/>
       <c r="AA27" t="n">
-        <v>62.7520076951137</v>
+        <v>61.1195440297373</v>
       </c>
     </row>
     <row r="28">
@@ -8924,7 +8924,7 @@
       </c>
       <c r="Z28"/>
       <c r="AA28" t="n">
-        <v>60.2340479609231</v>
+        <v>56.8910090885775</v>
       </c>
     </row>
     <row r="29">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="Z29"/>
       <c r="AA29" t="n">
-        <v>60.0437327833914</v>
+        <v>56.5799639980336</v>
       </c>
     </row>
     <row r="30">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="Z30"/>
       <c r="AA30" t="n">
-        <v>59.6484039244944</v>
+        <v>55.3100772430391</v>
       </c>
     </row>
     <row r="31">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="Z31"/>
       <c r="AA31" t="n">
-        <v>59.5982266826765</v>
+        <v>54.8575237302436</v>
       </c>
     </row>
     <row r="32">
@@ -9232,7 +9232,7 @@
       </c>
       <c r="Z32"/>
       <c r="AA32" t="n">
-        <v>58.5197024966971</v>
+        <v>54.7623499138291</v>
       </c>
     </row>
     <row r="33">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="Z33"/>
       <c r="AA33" t="n">
-        <v>58.3998011751023</v>
+        <v>54.6108109526779</v>
       </c>
     </row>
     <row r="34">
@@ -9386,7 +9386,7 @@
       </c>
       <c r="Z34"/>
       <c r="AA34" t="n">
-        <v>57.7344384620537</v>
+        <v>54.2038954121018</v>
       </c>
     </row>
     <row r="35">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="Z35"/>
       <c r="AA35" t="n">
-        <v>57.4745312425513</v>
+        <v>53.9466619229759</v>
       </c>
     </row>
     <row r="36">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="Z36"/>
       <c r="AA36" t="n">
-        <v>55.5895915811579</v>
+        <v>53.9464074113346</v>
       </c>
     </row>
     <row r="37">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="Z37"/>
       <c r="AA37" t="n">
-        <v>55.530064560511</v>
+        <v>53.5181336623199</v>
       </c>
     </row>
     <row r="38">
@@ -9694,7 +9694,7 @@
       </c>
       <c r="Z38"/>
       <c r="AA38" t="n">
-        <v>55.3342390971716</v>
+        <v>51.8765948172934</v>
       </c>
     </row>
     <row r="39">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="Z39"/>
       <c r="AA39" t="n">
-        <v>55.3157220169925</v>
+        <v>51.0991505072654</v>
       </c>
     </row>
     <row r="40">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="Z40"/>
       <c r="AA40" t="n">
-        <v>55.0847386172391</v>
+        <v>50.8378739966656</v>
       </c>
     </row>
     <row r="41">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="Z41"/>
       <c r="AA41" t="n">
-        <v>54.7540250802248</v>
+        <v>50.7515331629966</v>
       </c>
     </row>
     <row r="42">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="Z42"/>
       <c r="AA42" t="n">
-        <v>54.4231518353712</v>
+        <v>50.6055636215072</v>
       </c>
     </row>
     <row r="43">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="Z43"/>
       <c r="AA43" t="n">
-        <v>53.6311326333028</v>
+        <v>50.4608694512882</v>
       </c>
     </row>
     <row r="44">
@@ -10158,7 +10158,7 @@
       </c>
       <c r="Z44"/>
       <c r="AA44" t="n">
-        <v>53.2696908309914</v>
+        <v>50.2211987479862</v>
       </c>
     </row>
     <row r="45">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="Z45"/>
       <c r="AA45" t="n">
-        <v>52.8669812663612</v>
+        <v>50.0092414334854</v>
       </c>
     </row>
     <row r="46">
@@ -10312,7 +10312,7 @@
       </c>
       <c r="Z46"/>
       <c r="AA46" t="n">
-        <v>52.4160532862879</v>
+        <v>49.6905631723748</v>
       </c>
     </row>
     <row r="47">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="Z47"/>
       <c r="AA47" t="n">
-        <v>52.0047937468767</v>
+        <v>49.4623093968182</v>
       </c>
     </row>
     <row r="48">
@@ -10466,7 +10466,7 @@
       </c>
       <c r="Z48"/>
       <c r="AA48" t="n">
-        <v>51.7151294897769</v>
+        <v>48.7946490303082</v>
       </c>
     </row>
     <row r="49">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="Z49"/>
       <c r="AA49" t="n">
-        <v>51.5898285528784</v>
+        <v>48.0493885201303</v>
       </c>
     </row>
     <row r="50">
@@ -10620,7 +10620,7 @@
       </c>
       <c r="Z50"/>
       <c r="AA50" t="n">
-        <v>51.393420678846</v>
+        <v>47.8759754585527</v>
       </c>
     </row>
     <row r="51">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="Z51"/>
       <c r="AA51" t="n">
-        <v>51.1598992719844</v>
+        <v>47.5966284783996</v>
       </c>
     </row>
     <row r="52">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="Z52"/>
       <c r="AA52" t="n">
-        <v>50.7844695031048</v>
+        <v>47.3601401063865</v>
       </c>
     </row>
     <row r="53">
@@ -10851,7 +10851,7 @@
       </c>
       <c r="Z53"/>
       <c r="AA53" t="n">
-        <v>50.7421613377336</v>
+        <v>47.3526947152214</v>
       </c>
     </row>
     <row r="54">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="Z54"/>
       <c r="AA54" t="n">
-        <v>50.2588847775707</v>
+        <v>47.134647726673</v>
       </c>
     </row>
     <row r="55">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="Z55"/>
       <c r="AA55" t="n">
-        <v>50.0204556775154</v>
+        <v>46.8221328474349</v>
       </c>
     </row>
     <row r="56">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="Z56"/>
       <c r="AA56" t="n">
-        <v>49.9442097951959</v>
+        <v>46.8015248593225</v>
       </c>
     </row>
     <row r="57">
@@ -11159,7 +11159,7 @@
       </c>
       <c r="Z57"/>
       <c r="AA57" t="n">
-        <v>49.8250078632777</v>
+        <v>46.1870946998491</v>
       </c>
     </row>
     <row r="58">
@@ -11236,7 +11236,7 @@
       </c>
       <c r="Z58"/>
       <c r="AA58" t="n">
-        <v>49.3524829581185</v>
+        <v>46.153294260246</v>
       </c>
     </row>
     <row r="59">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="Z59"/>
       <c r="AA59" t="n">
-        <v>49.3269075786778</v>
+        <v>45.8206336165477</v>
       </c>
     </row>
     <row r="60">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="Z60"/>
       <c r="AA60" t="n">
-        <v>49.2917661769628</v>
+        <v>45.7856041543631</v>
       </c>
     </row>
     <row r="61">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="Z61"/>
       <c r="AA61" t="n">
-        <v>49.284438006641</v>
+        <v>45.7827246736699</v>
       </c>
     </row>
     <row r="62">
@@ -11544,7 +11544,7 @@
       </c>
       <c r="Z62"/>
       <c r="AA62" t="n">
-        <v>48.8969040337603</v>
+        <v>45.7033609632542</v>
       </c>
     </row>
     <row r="63">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="Z63"/>
       <c r="AA63" t="n">
-        <v>48.7713262694299</v>
+        <v>45.6897388451667</v>
       </c>
     </row>
     <row r="64">
@@ -11698,7 +11698,7 @@
       </c>
       <c r="Z64"/>
       <c r="AA64" t="n">
-        <v>48.4337379964177</v>
+        <v>45.5993768993273</v>
       </c>
     </row>
     <row r="65">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="Z65"/>
       <c r="AA65" t="n">
-        <v>47.1837683521446</v>
+        <v>45.4324862617314</v>
       </c>
     </row>
     <row r="66">
@@ -11854,7 +11854,7 @@
       </c>
       <c r="Z66"/>
       <c r="AA66" t="n">
-        <v>47.1787946089122</v>
+        <v>45.3560369513493</v>
       </c>
     </row>
     <row r="67">
@@ -11931,7 +11931,7 @@
       </c>
       <c r="Z67"/>
       <c r="AA67" t="n">
-        <v>46.8666862199993</v>
+        <v>44.4974593532043</v>
       </c>
     </row>
     <row r="68">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="Z68"/>
       <c r="AA68" t="n">
-        <v>46.7616326513115</v>
+        <v>43.7500835834289</v>
       </c>
     </row>
     <row r="69">
@@ -12085,7 +12085,7 @@
       </c>
       <c r="Z69"/>
       <c r="AA69" t="n">
-        <v>46.7397834432135</v>
+        <v>43.6064440412919</v>
       </c>
     </row>
     <row r="70">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="Z70"/>
       <c r="AA70" t="n">
-        <v>46.0904286952951</v>
+        <v>43.1082019555993</v>
       </c>
     </row>
     <row r="71">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="Z71"/>
       <c r="AA71" t="n">
-        <v>46.0722395751988</v>
+        <v>42.6454397456662</v>
       </c>
     </row>
     <row r="72">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="Z72"/>
       <c r="AA72" t="n">
-        <v>45.9175210735469</v>
+        <v>42.5899343154229</v>
       </c>
     </row>
     <row r="73">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="Z73"/>
       <c r="AA73" t="n">
-        <v>45.8306602801984</v>
+        <v>42.1597796169086</v>
       </c>
     </row>
     <row r="74">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="Z74"/>
       <c r="AA74" t="n">
-        <v>45.6065844868289</v>
+        <v>42.1525761362369</v>
       </c>
     </row>
     <row r="75">
@@ -12547,7 +12547,7 @@
       </c>
       <c r="Z75"/>
       <c r="AA75" t="n">
-        <v>45.4278559718044</v>
+        <v>41.8298885459925</v>
       </c>
     </row>
     <row r="76">
@@ -12624,7 +12624,7 @@
       </c>
       <c r="Z76"/>
       <c r="AA76" t="n">
-        <v>45.418890102608</v>
+        <v>41.2123968868798</v>
       </c>
     </row>
     <row r="77">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="Z77"/>
       <c r="AA77" t="n">
-        <v>45.3361014600855</v>
+        <v>40.8233123727532</v>
       </c>
     </row>
     <row r="78">
@@ -12778,7 +12778,7 @@
       </c>
       <c r="Z78"/>
       <c r="AA78" t="n">
-        <v>45.1574601721573</v>
+        <v>40.4412968542899</v>
       </c>
     </row>
     <row r="79">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="Z79"/>
       <c r="AA79" t="n">
-        <v>44.8377430507092</v>
+        <v>40.3008294725634</v>
       </c>
     </row>
     <row r="80">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="Z80"/>
       <c r="AA80" t="n">
-        <v>44.7435872779545</v>
+        <v>39.4722306004019</v>
       </c>
     </row>
     <row r="81">
@@ -13009,7 +13009,7 @@
       </c>
       <c r="Z81"/>
       <c r="AA81" t="n">
-        <v>44.7323740951881</v>
+        <v>39.2853826465708</v>
       </c>
     </row>
     <row r="82">
@@ -13086,7 +13086,7 @@
       </c>
       <c r="Z82"/>
       <c r="AA82" t="n">
-        <v>44.3380567868696</v>
+        <v>39.1354529242218</v>
       </c>
     </row>
     <row r="83">
@@ -13165,7 +13165,7 @@
       </c>
       <c r="Z83"/>
       <c r="AA83" t="n">
-        <v>44.0284512791267</v>
+        <v>38.8275455443378</v>
       </c>
     </row>
     <row r="84">
@@ -13242,7 +13242,7 @@
       </c>
       <c r="Z84"/>
       <c r="AA84" t="n">
-        <v>43.8673214351457</v>
+        <v>38.7946429940852</v>
       </c>
     </row>
     <row r="85">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="Z85"/>
       <c r="AA85" t="n">
-        <v>43.5970918917369</v>
+        <v>38.5347121937871</v>
       </c>
     </row>
     <row r="86">
@@ -13396,7 +13396,7 @@
       </c>
       <c r="Z86"/>
       <c r="AA86" t="n">
-        <v>43.4121413282146</v>
+        <v>38.5254153720396</v>
       </c>
     </row>
     <row r="87">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="Z87"/>
       <c r="AA87" t="n">
-        <v>42.3707795989498</v>
+        <v>38.2928435041866</v>
       </c>
     </row>
     <row r="88">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="Z88"/>
       <c r="AA88" t="n">
-        <v>42.10661801247</v>
+        <v>37.5246691400073</v>
       </c>
     </row>
     <row r="89">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="Z89"/>
       <c r="AA89" t="n">
-        <v>41.6047979795829</v>
+        <v>37.3187051997755</v>
       </c>
     </row>
     <row r="90">
@@ -13704,7 +13704,7 @@
       </c>
       <c r="Z90"/>
       <c r="AA90" t="n">
-        <v>41.2497480009272</v>
+        <v>37.1007362329664</v>
       </c>
     </row>
     <row r="91">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="Z91"/>
       <c r="AA91" t="n">
-        <v>40.6170698821225</v>
+        <v>36.2783545014338</v>
       </c>
     </row>
     <row r="92">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="Z92"/>
       <c r="AA92" t="n">
-        <v>40.5964053131698</v>
+        <v>35.935476447477</v>
       </c>
     </row>
     <row r="93">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="Z93"/>
       <c r="AA93" t="n">
-        <v>39.9784506966575</v>
+        <v>35.5895517895204</v>
       </c>
     </row>
     <row r="94">
@@ -14012,7 +14012,7 @@
       </c>
       <c r="Z94"/>
       <c r="AA94" t="n">
-        <v>39.9082986490358</v>
+        <v>35.1185076094175</v>
       </c>
     </row>
     <row r="95">
@@ -14089,7 +14089,7 @@
       </c>
       <c r="Z95"/>
       <c r="AA95" t="n">
-        <v>36.8419846603996</v>
+        <v>34.8341664798721</v>
       </c>
     </row>
     <row r="96">
@@ -14166,7 +14166,7 @@
       </c>
       <c r="Z96"/>
       <c r="AA96" t="n">
-        <v>36.6309164501159</v>
+        <v>32.9409130551954</v>
       </c>
     </row>
     <row r="97">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="Z97"/>
       <c r="AA97" t="n">
-        <v>36.5345845184558</v>
+        <v>32.7860077845407</v>
       </c>
     </row>
     <row r="98">
@@ -14320,7 +14320,7 @@
       </c>
       <c r="Z98"/>
       <c r="AA98" t="n">
-        <v>36.1863645896751</v>
+        <v>31.739585238567</v>
       </c>
     </row>
     <row r="99">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="Z99"/>
       <c r="AA99" t="n">
-        <v>35.9283164156175</v>
+        <v>31.3843675336431</v>
       </c>
     </row>
     <row r="100">
@@ -14476,7 +14476,7 @@
       </c>
       <c r="Z100"/>
       <c r="AA100" t="n">
-        <v>35.4732293017437</v>
+        <v>31.3481782281031</v>
       </c>
     </row>
     <row r="101">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="Z101"/>
       <c r="AA101" t="n">
-        <v>35.1913743112987</v>
+        <v>31.2975244469008</v>
       </c>
     </row>
     <row r="102">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="Z102"/>
       <c r="AA102" t="n">
-        <v>35.1657773609576</v>
+        <v>30.242006986063</v>
       </c>
     </row>
     <row r="103">
@@ -14707,7 +14707,7 @@
       </c>
       <c r="Z103"/>
       <c r="AA103" t="n">
-        <v>34.8722464864479</v>
+        <v>30.1684362268086</v>
       </c>
     </row>
     <row r="104">
@@ -14784,7 +14784,7 @@
       </c>
       <c r="Z104"/>
       <c r="AA104" t="n">
-        <v>34.6776681127104</v>
+        <v>29.96100144238</v>
       </c>
     </row>
     <row r="105">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="Z105"/>
       <c r="AA105" t="n">
-        <v>34.0878703824549</v>
+        <v>29.7697735125787</v>
       </c>
     </row>
     <row r="106">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="Z106"/>
       <c r="AA106" t="n">
-        <v>33.9608039638572</v>
+        <v>29.4484933142622</v>
       </c>
     </row>
     <row r="107">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="Z107"/>
       <c r="AA107" t="n">
-        <v>33.9518845971067</v>
+        <v>29.2806520153467</v>
       </c>
     </row>
     <row r="108">
@@ -15094,7 +15094,7 @@
       </c>
       <c r="Z108"/>
       <c r="AA108" t="n">
-        <v>33.3043120269909</v>
+        <v>28.318188773864</v>
       </c>
     </row>
     <row r="109">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="Z109"/>
       <c r="AA109" t="n">
-        <v>33.2666116710722</v>
+        <v>27.9502592235161</v>
       </c>
     </row>
     <row r="110">
@@ -15248,7 +15248,7 @@
       </c>
       <c r="Z110"/>
       <c r="AA110" t="n">
-        <v>32.8867570443599</v>
+        <v>27.5076784406147</v>
       </c>
     </row>
     <row r="111">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="Z111"/>
       <c r="AA111" t="n">
-        <v>32.8417633711309</v>
+        <v>26.6639626771623</v>
       </c>
     </row>
     <row r="112">
@@ -15404,7 +15404,7 @@
       </c>
       <c r="Z112"/>
       <c r="AA112" t="n">
-        <v>32.7021721530146</v>
+        <v>26.5079281711434</v>
       </c>
     </row>
     <row r="113">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="Z113"/>
       <c r="AA113" t="n">
-        <v>32.5498949640233</v>
+        <v>26.3896439767503</v>
       </c>
     </row>
     <row r="114">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="Z114"/>
       <c r="AA114" t="n">
-        <v>32.4276017439292</v>
+        <v>26.1174177221635</v>
       </c>
     </row>
     <row r="115">
@@ -15637,7 +15637,7 @@
       </c>
       <c r="Z115"/>
       <c r="AA115" t="n">
-        <v>31.7573693554412</v>
+        <v>25.5128308987729</v>
       </c>
     </row>
     <row r="116">
@@ -15714,7 +15714,7 @@
       </c>
       <c r="Z116"/>
       <c r="AA116" t="n">
-        <v>31.3694660051956</v>
+        <v>25.1457536103458</v>
       </c>
     </row>
     <row r="117">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="Z117"/>
       <c r="AA117" t="n">
-        <v>30.7722079482016</v>
+        <v>24.7925169010494</v>
       </c>
     </row>
     <row r="118">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="Z118"/>
       <c r="AA118" t="n">
-        <v>29.7773376014198</v>
+        <v>24.5554271902328</v>
       </c>
     </row>
     <row r="119">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="Z119"/>
       <c r="AA119" t="n">
-        <v>28.9651387472428</v>
+        <v>24.4545228027843</v>
       </c>
     </row>
     <row r="120">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="Z120"/>
       <c r="AA120" t="n">
-        <v>28.9094247208794</v>
+        <v>24.288708622603</v>
       </c>
     </row>
     <row r="121">
@@ -16099,7 +16099,7 @@
       </c>
       <c r="Z121"/>
       <c r="AA121" t="n">
-        <v>28.8963836999246</v>
+        <v>23.7166602205144</v>
       </c>
     </row>
     <row r="122">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="Z122"/>
       <c r="AA122" t="n">
-        <v>28.4264090985228</v>
+        <v>23.6705403362151</v>
       </c>
     </row>
     <row r="123">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="Z123"/>
       <c r="AA123" t="n">
-        <v>28.3392453064526</v>
+        <v>23.420914765625</v>
       </c>
     </row>
     <row r="124">
@@ -16330,7 +16330,7 @@
       </c>
       <c r="Z124"/>
       <c r="AA124" t="n">
-        <v>28.0534454295831</v>
+        <v>22.2423592967543</v>
       </c>
     </row>
     <row r="125">
@@ -16407,7 +16407,7 @@
       </c>
       <c r="Z125"/>
       <c r="AA125" t="n">
-        <v>27.9884683847151</v>
+        <v>21.9984187547581</v>
       </c>
     </row>
     <row r="126">
@@ -16484,7 +16484,7 @@
       </c>
       <c r="Z126"/>
       <c r="AA126" t="n">
-        <v>27.1379662821599</v>
+        <v>21.4661018032904</v>
       </c>
     </row>
     <row r="127">
@@ -16561,7 +16561,7 @@
       </c>
       <c r="Z127"/>
       <c r="AA127" t="n">
-        <v>25.4683926177407</v>
+        <v>21.0353770868969</v>
       </c>
     </row>
     <row r="128">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="Z128"/>
       <c r="AA128" t="n">
-        <v>24.1215382450902</v>
+        <v>20.1545514367305</v>
       </c>
     </row>
     <row r="129">
@@ -16715,7 +16715,7 @@
       </c>
       <c r="Z129"/>
       <c r="AA129" t="n">
-        <v>23.5187425058593</v>
+        <v>20.1231311676672</v>
       </c>
     </row>
     <row r="130">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="Z130"/>
       <c r="AA130" t="n">
-        <v>23.3942373376413</v>
+        <v>19.3684977827706</v>
       </c>
     </row>
     <row r="131">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="Z131"/>
       <c r="AA131" t="n">
-        <v>23.2404661802817</v>
+        <v>18.9139136231644</v>
       </c>
     </row>
     <row r="132">
@@ -16946,7 +16946,7 @@
       </c>
       <c r="Z132"/>
       <c r="AA132" t="n">
-        <v>22.7559008964192</v>
+        <v>18.4790377408276</v>
       </c>
     </row>
     <row r="133">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="Z133"/>
       <c r="AA133" t="n">
-        <v>22.4920420354296</v>
+        <v>16.8876728305329</v>
       </c>
     </row>
     <row r="134">
@@ -17100,7 +17100,7 @@
       </c>
       <c r="Z134"/>
       <c r="AA134" t="n">
-        <v>21.0935374272995</v>
+        <v>16.5072553490477</v>
       </c>
     </row>
     <row r="135">
@@ -17177,7 +17177,7 @@
       </c>
       <c r="Z135"/>
       <c r="AA135" t="n">
-        <v>21.0819754694945</v>
+        <v>15.3910468771285</v>
       </c>
     </row>
     <row r="136">
@@ -17254,7 +17254,7 @@
       </c>
       <c r="Z136"/>
       <c r="AA136" t="n">
-        <v>20.9875786981908</v>
+        <v>14.3137405471778</v>
       </c>
     </row>
     <row r="137">
@@ -17331,7 +17331,7 @@
       </c>
       <c r="Z137"/>
       <c r="AA137" t="n">
-        <v>20.5879531028673</v>
+        <v>14.1569666535934</v>
       </c>
     </row>
     <row r="138">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="Z138"/>
       <c r="AA138" t="n">
-        <v>20.0093339714674</v>
+        <v>13.8360632941375</v>
       </c>
     </row>
     <row r="139">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="Z139"/>
       <c r="AA139" t="n">
-        <v>19.6097728811018</v>
+        <v>13.698276100729</v>
       </c>
     </row>
     <row r="140">
@@ -17564,7 +17564,7 @@
       </c>
       <c r="Z140"/>
       <c r="AA140" t="n">
-        <v>18.781402659232</v>
+        <v>13.331487635047</v>
       </c>
     </row>
     <row r="141">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="Z141"/>
       <c r="AA141" t="n">
-        <v>18.2614046673798</v>
+        <v>12.936464992567</v>
       </c>
     </row>
     <row r="142">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="Z142"/>
       <c r="AA142" t="n">
-        <v>17.8266735114207</v>
+        <v>12.9123291826546</v>
       </c>
     </row>
     <row r="143">
@@ -17795,7 +17795,7 @@
       </c>
       <c r="Z143"/>
       <c r="AA143" t="n">
-        <v>16.2762280730347</v>
+        <v>11.3874281569351</v>
       </c>
     </row>
     <row r="144">
@@ -17872,7 +17872,7 @@
       </c>
       <c r="Z144"/>
       <c r="AA144" t="n">
-        <v>13.0719153323664</v>
+        <v>7.86587696035347</v>
       </c>
     </row>
     <row r="145">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="Z145"/>
       <c r="AA145" t="n">
-        <v>11.8330941733946</v>
+        <v>7.6108083397857</v>
       </c>
     </row>
     <row r="146">
@@ -18026,7 +18026,7 @@
       </c>
       <c r="Z146"/>
       <c r="AA146" t="n">
-        <v>10.8886246857785</v>
+        <v>4.66947096001043</v>
       </c>
     </row>
     <row r="147">
@@ -18103,7 +18103,7 @@
       </c>
       <c r="Z147"/>
       <c r="AA147" t="n">
-        <v>7.05343174765259</v>
+        <v>0.888962245020958</v>
       </c>
     </row>
     <row r="148">
